--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2538806.982101497</v>
+        <v>-2541446.407578968</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>330.0698747770786</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.3387803012722</v>
@@ -677,7 +677,7 @@
         <v>298.8789252992939</v>
       </c>
       <c r="I2" t="n">
-        <v>57.65542908295714</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>118.6913945753449</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.7436268604466</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0285363307275</v>
+        <v>170.5497921527782</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.2226130746801</v>
       </c>
       <c r="H3" t="n">
-        <v>91.75197580253081</v>
+        <v>91.75197580253082</v>
       </c>
       <c r="I3" t="n">
-        <v>16.37427717174643</v>
+        <v>16.37427717174646</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.2128846164207</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>146.4182938009555</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9783166848766</v>
+        <v>24.43479656438899</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>97.34378597607532</v>
+        <v>97.34378597607535</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>193.029256032545</v>
       </c>
       <c r="T4" t="n">
         <v>220.3482755304824</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>97.88832431384959</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>231.4760253798848</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>168.1727619484258</v>
       </c>
     </row>
     <row r="6">
@@ -1060,13 +1060,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>127.2108658268564</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>81.05548553673613</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>216.1564825271696</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>104.3151417514982</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>193.0697012992161</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>57.49360487439519</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576166</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>64.91921363453552</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1579,16 +1579,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>245.4109786013537</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V16" t="n">
-        <v>20.25102067617261</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.85665993309993</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012162</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>251.4415958840106</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856559</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>248.6571042139329</v>
+        <v>199.1905227778677</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545291</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2722,7 +2722,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308919</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808182</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652616</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652586</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1165.37499690059</v>
+        <v>1553.681697559866</v>
       </c>
       <c r="C2" t="n">
-        <v>831.9710829843493</v>
+        <v>1184.719180619454</v>
       </c>
       <c r="D2" t="n">
-        <v>831.9710829843493</v>
+        <v>1184.719180619454</v>
       </c>
       <c r="E2" t="n">
-        <v>831.9710829843493</v>
+        <v>1184.719180619454</v>
       </c>
       <c r="F2" t="n">
-        <v>831.9710829843493</v>
+        <v>773.7332758298469</v>
       </c>
       <c r="G2" t="n">
-        <v>416.4773655083169</v>
+        <v>358.2395583538147</v>
       </c>
       <c r="H2" t="n">
-        <v>114.5794611655957</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="I2" t="n">
-        <v>56.34165401109358</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="J2" t="n">
-        <v>210.1777629739679</v>
+        <v>210.1777629739681</v>
       </c>
       <c r="K2" t="n">
-        <v>491.4767306579186</v>
+        <v>491.4767306579187</v>
       </c>
       <c r="L2" t="n">
-        <v>877.3547360840311</v>
+        <v>877.3547360840312</v>
       </c>
       <c r="M2" t="n">
         <v>1338.387805296445</v>
@@ -4346,34 +4346,34 @@
         <v>2244.90082469238</v>
       </c>
       <c r="P2" t="n">
-        <v>2580.301941171664</v>
+        <v>2580.301941171662</v>
       </c>
       <c r="Q2" t="n">
-        <v>2784.001464928709</v>
+        <v>2784.001464928707</v>
       </c>
       <c r="R2" t="n">
-        <v>2817.082700554679</v>
+        <v>2817.082700554677</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.192403003825</v>
+        <v>2817.082700554677</v>
       </c>
       <c r="T2" t="n">
-        <v>2489.370557690243</v>
+        <v>2817.082700554677</v>
       </c>
       <c r="U2" t="n">
-        <v>2235.806379578397</v>
+        <v>2644.810183228638</v>
       </c>
       <c r="V2" t="n">
-        <v>1904.743492234826</v>
+        <v>2313.747295885068</v>
       </c>
       <c r="W2" t="n">
-        <v>1551.974836964712</v>
+        <v>2313.747295885068</v>
       </c>
       <c r="X2" t="n">
-        <v>1551.974836964712</v>
+        <v>1940.281537623988</v>
       </c>
       <c r="Y2" t="n">
-        <v>1551.974836964712</v>
+        <v>1940.281537623988</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1188.607358531424</v>
+        <v>1188.607358531422</v>
       </c>
       <c r="C3" t="n">
-        <v>1014.154329250297</v>
+        <v>1014.154329250295</v>
       </c>
       <c r="D3" t="n">
-        <v>865.2199195890456</v>
+        <v>865.2199195890438</v>
       </c>
       <c r="E3" t="n">
-        <v>705.9824645835902</v>
+        <v>705.9824645835884</v>
       </c>
       <c r="F3" t="n">
-        <v>559.4479066104751</v>
+        <v>559.4479066104733</v>
       </c>
       <c r="G3" t="n">
-        <v>422.8594085552427</v>
+        <v>422.8594085552409</v>
       </c>
       <c r="H3" t="n">
-        <v>330.1806451183429</v>
+        <v>330.180645118341</v>
       </c>
       <c r="I3" t="n">
-        <v>313.6409712074879</v>
+        <v>313.640971207486</v>
       </c>
       <c r="J3" t="n">
-        <v>386.4468568659318</v>
+        <v>511.2769818529346</v>
       </c>
       <c r="K3" t="n">
-        <v>589.0385365319886</v>
+        <v>726.8467374917918</v>
       </c>
       <c r="L3" t="n">
-        <v>907.7705923642795</v>
+        <v>1045.578793324083</v>
       </c>
       <c r="M3" t="n">
-        <v>1405.671916113795</v>
+        <v>1436.880937032789</v>
       </c>
       <c r="N3" t="n">
-        <v>1821.73930812635</v>
+        <v>1852.948329045344</v>
       </c>
       <c r="O3" t="n">
-        <v>2180.139891256214</v>
+        <v>2211.348912175208</v>
       </c>
       <c r="P3" t="n">
-        <v>2448.454890128206</v>
+        <v>2479.663911047199</v>
       </c>
       <c r="Q3" t="n">
-        <v>2785.873679635684</v>
+        <v>2817.082700554677</v>
       </c>
       <c r="R3" t="n">
-        <v>2817.082700554679</v>
+        <v>2817.082700554677</v>
       </c>
       <c r="S3" t="n">
-        <v>2683.458147140057</v>
+        <v>2683.458147140056</v>
       </c>
       <c r="T3" t="n">
-        <v>2489.906635155919</v>
+        <v>2489.906635155917</v>
       </c>
       <c r="U3" t="n">
-        <v>2261.823959481923</v>
+        <v>2261.823959481921</v>
       </c>
       <c r="V3" t="n">
-        <v>2026.67185125018</v>
+        <v>2026.671851250178</v>
       </c>
       <c r="W3" t="n">
-        <v>1772.434494521979</v>
+        <v>1772.434494521977</v>
       </c>
       <c r="X3" t="n">
-        <v>1564.582994316446</v>
+        <v>1564.582994316444</v>
       </c>
       <c r="Y3" t="n">
-        <v>1356.822695551492</v>
+        <v>1356.82269555149</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>769.9421648916524</v>
+        <v>673.8402136606461</v>
       </c>
       <c r="C4" t="n">
-        <v>769.9421648916524</v>
+        <v>673.8402136606461</v>
       </c>
       <c r="D4" t="n">
-        <v>769.9421648916524</v>
+        <v>523.7235742483103</v>
       </c>
       <c r="E4" t="n">
-        <v>622.0290713092593</v>
+        <v>375.8104806659172</v>
       </c>
       <c r="F4" t="n">
-        <v>475.139123811349</v>
+        <v>228.9205331680068</v>
       </c>
       <c r="G4" t="n">
-        <v>307.2473211684998</v>
+        <v>228.9205331680068</v>
       </c>
       <c r="H4" t="n">
-        <v>159.3500547028881</v>
+        <v>81.02326670239518</v>
       </c>
       <c r="I4" t="n">
-        <v>56.34165401109358</v>
+        <v>56.34165401109355</v>
       </c>
       <c r="J4" t="n">
-        <v>88.37025097505908</v>
+        <v>88.37025097505901</v>
       </c>
       <c r="K4" t="n">
-        <v>270.8399112966554</v>
+        <v>270.8399112966553</v>
       </c>
       <c r="L4" t="n">
-        <v>559.8646890059857</v>
+        <v>559.8646890059855</v>
       </c>
       <c r="M4" t="n">
-        <v>874.9899159308718</v>
+        <v>874.9899159308716</v>
       </c>
       <c r="N4" t="n">
-        <v>1188.056785720852</v>
+        <v>1188.056785720851</v>
       </c>
       <c r="O4" t="n">
         <v>1461.208415798624</v>
       </c>
       <c r="P4" t="n">
-        <v>1671.416141503541</v>
+        <v>1671.41614150354</v>
       </c>
       <c r="Q4" t="n">
         <v>1733.517994704578</v>
       </c>
       <c r="R4" t="n">
-        <v>1635.190938163088</v>
+        <v>1635.190938163087</v>
       </c>
       <c r="S4" t="n">
-        <v>1635.190938163088</v>
+        <v>1440.211891665567</v>
       </c>
       <c r="T4" t="n">
-        <v>1412.616922475732</v>
+        <v>1217.637875978211</v>
       </c>
       <c r="U4" t="n">
-        <v>1123.503748364054</v>
+        <v>928.524701866533</v>
       </c>
       <c r="V4" t="n">
-        <v>868.8192601581671</v>
+        <v>673.8402136606461</v>
       </c>
       <c r="W4" t="n">
-        <v>769.9421648916524</v>
+        <v>673.8402136606461</v>
       </c>
       <c r="X4" t="n">
-        <v>769.9421648916524</v>
+        <v>673.8402136606461</v>
       </c>
       <c r="Y4" t="n">
-        <v>769.9421648916524</v>
+        <v>673.8402136606461</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1257.755181644084</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C5" t="n">
-        <v>888.7926647036722</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>530.5269660969217</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3091.791654558782</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2760.728767215212</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2407.960111945097</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2034.494353684017</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1644.355021708206</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.5934525793617</v>
+        <v>759.2995336040055</v>
       </c>
       <c r="C7" t="n">
-        <v>481.6572696514548</v>
+        <v>590.3633506760987</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>440.2467112637629</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>292.3336176813698</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>292.3336176813698</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X7" t="n">
-        <v>1053.034496553131</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="Y7" t="n">
-        <v>832.2419174096015</v>
+        <v>940.9479984342453</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2148.434869859537</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C8" t="n">
-        <v>1779.472352919125</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D8" t="n">
-        <v>1421.206654312375</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E8" t="n">
-        <v>1035.41840171413</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>624.4324969245229</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
         <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2760.728767215212</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923659</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.034709923659</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y8" t="n">
-        <v>2535.034709923659</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1029.71928130825</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1029.71928130825</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.71928130825</v>
+        <v>1325.11854148767</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>853.5941094450252</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675715</v>
+        <v>703.4774700326893</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851784</v>
+        <v>555.5643764502963</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>408.6744289523861</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>241.4783296672659</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5212,10 +5212,10 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W13" t="n">
-        <v>1440.495976479601</v>
+        <v>1652.960887244719</v>
       </c>
       <c r="X13" t="n">
-        <v>1212.506425581584</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356193</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356193</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232835</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408904</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1667.930277414127</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1150.523556479149</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356193</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5601,10 +5601,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356196</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1135.8961096909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5838,10 +5838,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
         <v>1896.176478190825</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532806</v>
+        <v>784.5811134804961</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253736</v>
+        <v>615.6449305525891</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253736</v>
+        <v>465.5282911402534</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429804</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429804</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578603</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1976.192826467916</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V22" t="n">
-        <v>1721.508338262029</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W22" t="n">
-        <v>1432.091168225068</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.101617327051</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3090381835204</v>
+        <v>966.2295783107359</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6078,10 +6078,10 @@
         <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D25" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E25" t="n">
         <v>533.5814564942655</v>
@@ -6148,10 +6148,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6172,13 +6172,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
         <v>1748.685508594055</v>
@@ -6187,7 +6187,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
         <v>1084.076049400516</v>
@@ -6312,10 +6312,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,13 +6534,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
@@ -6549,19 +6549,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6607,7 +6607,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,7 +6616,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6652,7 +6652,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6786,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7026,13 +7026,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,10 +7096,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,16 +7169,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7257,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7363,10 +7363,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,73 +7543,73 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13.10916764929343</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107.6759394351604</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>13.99740625678061</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>35.203016993929</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,7 +22556,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>57.65542908295723</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>118.691394575345</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.7436268604466</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>80.4787441779493</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22708,7 +22708,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.2128846164207</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>77.54352012048767</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>193.0292560325449</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>188.6346740227414</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>75.37549921168829</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>41.11201973523728</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>231.8866226476549</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>142.9753202488374</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>34.74287850523359</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012174</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>37.52737017531148</v>
+        <v>86.99395161137647</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -26329,31 +26329,31 @@
         <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225015</v>
+        <v>20178.66499225016</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="J2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="L2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="O2" t="n">
-        <v>20526.0442466071</v>
-      </c>
       <c r="P2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1186172.826266607</v>
       </c>
       <c r="C3" t="n">
-        <v>135540.2139992232</v>
+        <v>135540.2139992235</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="J3" t="n">
-        <v>184268.1965259821</v>
+        <v>184268.196525982</v>
       </c>
       <c r="K3" t="n">
-        <v>32719.39465488807</v>
+        <v>32719.39465488819</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16646.7558628479</v>
+        <v>16646.75586284793</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>18547.94754987471</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="J4" t="n">
         <v>18547.94754987467</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.94754987473</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="L4" t="n">
         <v>18547.94754987468</v>
@@ -26451,10 +26451,10 @@
         <v>18547.94754987468</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987466</v>
       </c>
       <c r="P4" t="n">
         <v>18547.94754987468</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97942.80602990606</v>
+        <v>97942.80602990603</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1284879.311833</v>
+        <v>-1285343.608625024</v>
       </c>
       <c r="C6" t="n">
-        <v>-312692.2333721418</v>
+        <v>-312692.2333721423</v>
       </c>
       <c r="D6" t="n">
         <v>-177152.0193729187</v>
       </c>
       <c r="E6" t="n">
-        <v>-416913.4149257934</v>
+        <v>-416948.152851229</v>
       </c>
       <c r="F6" t="n">
-        <v>-91500.95311843816</v>
+        <v>-91535.69104387389</v>
       </c>
       <c r="G6" t="n">
-        <v>-91500.95311843818</v>
+        <v>-91535.69104387389</v>
       </c>
       <c r="H6" t="n">
-        <v>-91500.95311843812</v>
+        <v>-91535.69104387383</v>
       </c>
       <c r="I6" t="n">
         <v>-120613.7371508148</v>
       </c>
       <c r="J6" t="n">
-        <v>-285454.2156831651</v>
+        <v>-285454.2156831649</v>
       </c>
       <c r="K6" t="n">
-        <v>-133905.4138120711</v>
+        <v>-133905.4138120712</v>
       </c>
       <c r="L6" t="n">
         <v>-101186.019157183</v>
@@ -26555,7 +26555,7 @@
         <v>-186241.0470926948</v>
       </c>
       <c r="N6" t="n">
-        <v>-120613.7371508148</v>
+        <v>-120613.7371508147</v>
       </c>
       <c r="O6" t="n">
         <v>-101186.019157183</v>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="J2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203976</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.0343569483917</v>
+        <v>986.0343569483914</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.2706751386697</v>
+        <v>704.2706751386693</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>986.0343569483917</v>
+        <v>986.0343569483914</v>
       </c>
       <c r="C3" t="n">
-        <v>103.7423436449066</v>
+        <v>103.7423436449069</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.2706751386697</v>
+        <v>704.2706751386693</v>
       </c>
       <c r="C4" t="n">
-        <v>127.130780263623</v>
+        <v>127.1307802636233</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.2706751386697</v>
+        <v>704.2706751386693</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636228</v>
+        <v>127.1307802636233</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.2706751386697</v>
+        <v>704.2706751386693</v>
       </c>
       <c r="K4" t="n">
-        <v>127.130780263623</v>
+        <v>127.1307802636233</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>19.51914657901716</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>218.0651767076278</v>
       </c>
     </row>
     <row r="6">
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>38.8149424321718</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>144.654169852301</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>194.7652431262838</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>223.4371167186367</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>59.06794202461188</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>168.2160505146419</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.963957213862878</v>
+        <v>3.963957213862877</v>
       </c>
       <c r="H2" t="n">
-        <v>40.59587681647321</v>
+        <v>40.5958768164732</v>
       </c>
       <c r="I2" t="n">
-        <v>152.8204604874488</v>
+        <v>152.8204604874487</v>
       </c>
       <c r="J2" t="n">
-        <v>336.4359135800948</v>
+        <v>336.4359135800947</v>
       </c>
       <c r="K2" t="n">
-        <v>504.2302224429105</v>
+        <v>504.2302224429104</v>
       </c>
       <c r="L2" t="n">
-        <v>625.5421780266668</v>
+        <v>625.5421780266665</v>
       </c>
       <c r="M2" t="n">
-        <v>696.0362021287007</v>
+        <v>696.0362021287004</v>
       </c>
       <c r="N2" t="n">
-        <v>707.2987955625886</v>
+        <v>707.2987955625883</v>
       </c>
       <c r="O2" t="n">
-        <v>667.8821960172396</v>
+        <v>667.8821960172394</v>
       </c>
       <c r="P2" t="n">
-        <v>570.0220022999997</v>
+        <v>570.0220022999995</v>
       </c>
       <c r="Q2" t="n">
-        <v>428.0627845785352</v>
+        <v>428.0627845785351</v>
       </c>
       <c r="R2" t="n">
-        <v>249.0009273353143</v>
+        <v>249.0009273353142</v>
       </c>
       <c r="S2" t="n">
-        <v>90.32867501090043</v>
+        <v>90.3286750109004</v>
       </c>
       <c r="T2" t="n">
-        <v>17.35222270368476</v>
+        <v>17.35222270368475</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3171165771090302</v>
+        <v>0.3171165771090301</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.120904088530503</v>
+        <v>2.120904088530502</v>
       </c>
       <c r="H3" t="n">
-        <v>20.48346843396565</v>
+        <v>20.48346843396564</v>
       </c>
       <c r="I3" t="n">
-        <v>73.02235567966865</v>
+        <v>73.02235567966862</v>
       </c>
       <c r="J3" t="n">
         <v>200.3789253115595</v>
       </c>
       <c r="K3" t="n">
-        <v>342.4794992431032</v>
+        <v>342.4794992431031</v>
       </c>
       <c r="L3" t="n">
-        <v>460.5059513276428</v>
+        <v>460.5059513276427</v>
       </c>
       <c r="M3" t="n">
-        <v>537.3887245368734</v>
+        <v>537.3887245368733</v>
       </c>
       <c r="N3" t="n">
-        <v>551.6118050253084</v>
+        <v>551.6118050253082</v>
       </c>
       <c r="O3" t="n">
-        <v>504.6170354847114</v>
+        <v>504.6170354847112</v>
       </c>
       <c r="P3" t="n">
-        <v>404.99965880018</v>
+        <v>404.9996588001799</v>
       </c>
       <c r="Q3" t="n">
-        <v>270.7315464587358</v>
+        <v>270.7315464587357</v>
       </c>
       <c r="R3" t="n">
-        <v>131.6820977071834</v>
+        <v>131.6820977071833</v>
       </c>
       <c r="S3" t="n">
-        <v>39.39486322336261</v>
+        <v>39.39486322336259</v>
       </c>
       <c r="T3" t="n">
-        <v>8.548731830524261</v>
+        <v>8.548731830524259</v>
       </c>
       <c r="U3" t="n">
         <v>0.1395331637191121</v>
@@ -31203,43 +31203,43 @@
         <v>15.80887870648406</v>
       </c>
       <c r="I4" t="n">
-        <v>53.47215824238165</v>
+        <v>53.47215824238163</v>
       </c>
       <c r="J4" t="n">
-        <v>125.7112982620925</v>
+        <v>125.7112982620924</v>
       </c>
       <c r="K4" t="n">
-        <v>206.5822800295155</v>
+        <v>206.5822800295154</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3541946480984</v>
+        <v>264.3541946480983</v>
       </c>
       <c r="M4" t="n">
         <v>278.7244330632969</v>
       </c>
       <c r="N4" t="n">
-        <v>272.0969890247916</v>
+        <v>272.0969890247915</v>
       </c>
       <c r="O4" t="n">
-        <v>251.3256095382557</v>
+        <v>251.3256095382556</v>
       </c>
       <c r="P4" t="n">
         <v>215.0524768006786</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.8911878992072</v>
+        <v>148.8911878992071</v>
       </c>
       <c r="R4" t="n">
-        <v>79.94960540109416</v>
+        <v>79.94960540109413</v>
       </c>
       <c r="S4" t="n">
-        <v>30.98734200442731</v>
+        <v>30.9873420044273</v>
       </c>
       <c r="T4" t="n">
-        <v>7.597313897799081</v>
+        <v>7.597313897799078</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09698698592935011</v>
+        <v>0.09698698592935008</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>338.1920576279222</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>338.1920576279222</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33269,10 +33269,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>454.1257695262137</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>369.1789913099997</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>522.1224556861829</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>155.3900090534085</v>
+        <v>155.3900090534084</v>
       </c>
       <c r="K2" t="n">
-        <v>284.14037139793</v>
+        <v>284.1403713979298</v>
       </c>
       <c r="L2" t="n">
-        <v>389.7757630566795</v>
+        <v>389.7757630566793</v>
       </c>
       <c r="M2" t="n">
-        <v>465.689968901428</v>
+        <v>465.6899689014277</v>
       </c>
       <c r="N2" t="n">
-        <v>477.8857319659976</v>
+        <v>477.8857319659974</v>
       </c>
       <c r="O2" t="n">
-        <v>437.7839845955529</v>
+        <v>437.7839845955526</v>
       </c>
       <c r="P2" t="n">
-        <v>338.7890065447302</v>
+        <v>338.7890065447299</v>
       </c>
       <c r="Q2" t="n">
-        <v>205.7570947040857</v>
+        <v>205.7570947040856</v>
       </c>
       <c r="R2" t="n">
-        <v>33.41538952118214</v>
+        <v>33.41538952118205</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73.54129864489283</v>
+        <v>199.6323339853016</v>
       </c>
       <c r="K3" t="n">
-        <v>204.6380602687443</v>
+        <v>217.7472279180376</v>
       </c>
       <c r="L3" t="n">
-        <v>321.9515715477687</v>
+        <v>321.9515715477685</v>
       </c>
       <c r="M3" t="n">
-        <v>502.9306300500155</v>
+        <v>395.254690614855</v>
       </c>
       <c r="N3" t="n">
-        <v>420.2700929419751</v>
+        <v>420.2700929419749</v>
       </c>
       <c r="O3" t="n">
-        <v>362.0207910402669</v>
+        <v>362.0207910402668</v>
       </c>
       <c r="P3" t="n">
-        <v>271.0252513858498</v>
+        <v>271.0252513858497</v>
       </c>
       <c r="Q3" t="n">
-        <v>340.8270601085634</v>
+        <v>340.8270601085633</v>
       </c>
       <c r="R3" t="n">
-        <v>31.52426355454027</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>32.35211814541971</v>
+        <v>32.35211814541967</v>
       </c>
       <c r="K4" t="n">
-        <v>184.3127882036326</v>
+        <v>184.3127882036325</v>
       </c>
       <c r="L4" t="n">
-        <v>291.9442199084145</v>
+        <v>291.9442199084144</v>
       </c>
       <c r="M4" t="n">
         <v>318.3083100251375</v>
@@ -34869,13 +34869,13 @@
         <v>316.2291614040201</v>
       </c>
       <c r="O4" t="n">
-        <v>275.9107374522954</v>
+        <v>275.9107374522953</v>
       </c>
       <c r="P4" t="n">
         <v>212.3310360655721</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.72914464751277</v>
+        <v>62.72914464751271</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>196.0580237059039</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>196.0580237059039</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36917,10 +36917,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>311.9917356041954</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>226.5827468655553</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016747</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
